--- a/colby-compass/ColbyEventsData.xlsx
+++ b/colby-compass/ColbyEventsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlylevinsohn/Desktop/cs/cs431 capstone/CS431/CS431/colby-compass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522703C1-9E11-2244-9B22-4C907A1441BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E037F9-7C33-9041-B8D3-730ABA7EED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="32200" windowHeight="16940" activeTab="1" xr2:uid="{6BDFAEC6-6B68-C047-9CA8-14E65C11E92A}"/>
   </bookViews>
@@ -4150,7 +4150,7 @@
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="T1" s="44">
         <f>SUM(R2:R30)</f>
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
         <v>118</v>
       </c>
       <c r="R4" s="44">
-        <f>COUNTIF(F1:F116, Q4)</f>
+        <f>COUNTIF(F1:F117, Q4)</f>
         <v>1</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="78">
-        <f>COUNTIF(F1:F113, Q5)</f>
+        <f>COUNTIF(F1:F117, Q5)</f>
         <v>1</v>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
         <v>107</v>
       </c>
       <c r="R6" s="44">
-        <f>COUNTIF(F1:F112, Q6)</f>
+        <f>COUNTIF(F1:F117, Q6)</f>
         <v>1</v>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
         <v>59</v>
       </c>
       <c r="R7" s="44">
-        <f>COUNTIF(F1:F112, Q7)</f>
+        <f>COUNTIF(F1:F117, Q7)</f>
         <v>1</v>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
         <v>97</v>
       </c>
       <c r="R8" s="44">
-        <f>COUNTIF(F1:F110, Q8)</f>
+        <f>COUNTIF(F1:F117, Q8)</f>
         <v>1</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         <v>32</v>
       </c>
       <c r="R9" s="44">
-        <f>COUNTIF(F1:F110, Q9)</f>
+        <f>COUNTIF(F1:F117, Q9)</f>
         <v>1</v>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
         <v>177</v>
       </c>
       <c r="R10" s="44">
-        <f>COUNTIF(F1:F110, Q10)</f>
+        <f>COUNTIF(F1:F117, Q10)</f>
         <v>1</v>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
         <v>24</v>
       </c>
       <c r="R11" s="44">
-        <f>COUNTIF(F1:F110, Q11)</f>
+        <f>COUNTIF(F1:F117, Q11)</f>
         <v>1</v>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
         <v>94</v>
       </c>
       <c r="R12" s="44">
-        <f>COUNTIF(F1:F110, Q12)</f>
+        <f>COUNTIF(F1:F117, Q12)</f>
         <v>1</v>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
         <v>131</v>
       </c>
       <c r="R13" s="44">
-        <f>COUNTIF(F1:F109, Q13)</f>
+        <f>COUNTIF(F1:F117, Q13)</f>
         <v>1</v>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
         <v>147</v>
       </c>
       <c r="R14" s="44">
-        <f>COUNTIF(F1:F109, Q14)</f>
+        <f>COUNTIF(F1:F117, Q14)</f>
         <v>1</v>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
         <v>75</v>
       </c>
       <c r="R15" s="44">
-        <f>COUNTIF(F1:F109, Q15)</f>
+        <f>COUNTIF(F1:F117, Q15)</f>
         <v>1</v>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="44">
-        <f>COUNTIF(F1:F108, Q16)</f>
+        <f>COUNTIF(F1:F117, Q16)</f>
         <v>1</v>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
         <v>178</v>
       </c>
       <c r="R17" s="44">
-        <f>COUNTIF(F12:F127, Q17)</f>
+        <f>COUNTIF(F1:F117, Q17)</f>
         <v>2</v>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
         <v>183</v>
       </c>
       <c r="R18" s="44">
-        <f>COUNTIF(F1:F107, Q18)</f>
+        <f>COUNTIF(F1:F117, Q18)</f>
         <v>2</v>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
         <v>141</v>
       </c>
       <c r="R19" s="78">
-        <f>COUNTIF(F13:F128, Q19)</f>
+        <f>COUNTIF(F1:F117, Q19)</f>
         <v>3</v>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         <v>127</v>
       </c>
       <c r="R20" s="44">
-        <f>COUNTIF(F8:F123, Q20)</f>
+        <f>COUNTIF(F1:F117, Q20)</f>
         <v>3</v>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
         <v>88</v>
       </c>
       <c r="R21" s="44">
-        <f>COUNTIF(F1:F114, Q21)</f>
+        <f>COUNTIF(F1:F117, Q21)</f>
         <v>3</v>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
         <v>71</v>
       </c>
       <c r="R22" s="44">
-        <f>COUNTIF(F1:F113, Q22)</f>
+        <f>COUNTIF(F1:F117, Q22)</f>
         <v>3</v>
       </c>
     </row>
@@ -4940,8 +4940,8 @@
         <v>39</v>
       </c>
       <c r="R23" s="44">
-        <f>COUNTIF(F19:F135, Q23)</f>
-        <v>0</v>
+        <f>COUNTIF(F1:F117, Q23)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -4971,7 +4971,7 @@
         <v>176</v>
       </c>
       <c r="R24" s="44">
-        <f>COUNTIF(F1:F114, Q24)</f>
+        <f>COUNTIF(F1:F117, Q24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
         <v>68</v>
       </c>
       <c r="R25" s="44">
-        <f>COUNTIF(F7:F122, Q25)</f>
+        <f>COUNTIF(F1:F117, Q25)</f>
         <v>8</v>
       </c>
     </row>
@@ -5033,8 +5033,8 @@
         <v>181</v>
       </c>
       <c r="R26" s="44">
-        <f>COUNTIF(F26:F141, Q26)</f>
-        <v>0</v>
+        <f>COUNTIF(F1:F117, Q26)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -5064,7 +5064,7 @@
         <v>55</v>
       </c>
       <c r="R27" s="44">
-        <f>COUNTIF(F16:F131, Q27)</f>
+        <f>COUNTIF(F1:F117, Q27)</f>
         <v>12</v>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="R28" s="78">
-        <f>COUNTIF(F20:F135, Q28)</f>
+        <f>COUNTIF(F1:F117, Q28)</f>
         <v>14</v>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
         <v>26</v>
       </c>
       <c r="R29" s="44">
-        <f>COUNTIF(F2:F117, Q29)</f>
+        <f>COUNTIF(F1:F117, Q29)</f>
         <v>33</v>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       <c r="J30" s="46"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="44">
-        <f>COUNTIF(F2:F117, Q30)</f>
+        <f>COUNTIF(F1:F117, Q30)</f>
         <v>0</v>
       </c>
     </row>
